--- a/CodedExcelDemo/newFile2l.xlsx
+++ b/CodedExcelDemo/newFile2l.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viorel.groza\OneDrive - UiPath\Documents\myUiPath\CodedDemo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\codedautomations-samples\CodedExcelDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A168013-C420-41B2-9151-701D0CF9A095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15651853-186C-474C-A740-D6F8A47C2B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26868" yWindow="4548" windowWidth="19992" windowHeight="7380" activeTab="2" xr2:uid="{317213E7-B3CB-46CF-ABF7-6CB3E5FBC288}"/>
   </bookViews>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD6F66-2CD9-4C49-B4E9-8C4BAAD3303C}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D14"/>
+      <selection activeCell="A15" sqref="A15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,6 +605,34 @@
         <v>13</v>
       </c>
       <c r="D14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
         <v>19</v>
       </c>
     </row>
@@ -615,7 +643,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC628A94-67E7-4D9E-AA2A-7AEE381DA63A}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -884,6 +912,38 @@
         <v>17</v>
       </c>
       <c r="B31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>17</v>
+      </c>
+      <c r="B35">
         <v>19</v>
       </c>
     </row>
